--- a/Finflux Automation Excels/Client/4963-BulkJLGLOANon01JAN201-DISBLOAN.xlsx
+++ b/Finflux Automation Excels/Client/4963-BulkJLGLOANon01JAN201-DISBLOAN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
-        <v>305.63</v>
+        <v>301.72000000000003</v>
       </c>
       <c r="B3" s="16">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="16">
-        <v>305.63</v>
+        <v>301.72000000000003</v>
       </c>
       <c r="F3" s="16">
         <v>192.58</v>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,21 +1801,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="16">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C12" s="18">
-        <v>42171</v>
+        <v>42157</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16">
-        <v>834.98</v>
+        <v>846.72</v>
       </c>
       <c r="G12" s="17">
-        <v>1716.98</v>
+        <v>1705.24</v>
       </c>
       <c r="H12" s="16">
-        <v>23.49</v>
+        <v>11.75</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C13" s="18">
         <v>42171</v>
@@ -1854,13 +1854,13 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16">
-        <v>858.47</v>
+        <v>850.62</v>
       </c>
       <c r="G13" s="16">
-        <v>858.51</v>
+        <v>854.62</v>
       </c>
       <c r="H13" s="16">
-        <v>0</v>
+        <v>7.85</v>
       </c>
       <c r="I13" s="16">
         <v>0</v>
@@ -1899,13 +1899,13 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16">
-        <v>858.51</v>
+        <v>854.62</v>
       </c>
       <c r="G14" s="16">
         <v>0</v>
       </c>
       <c r="H14" s="16">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <v>862.46</v>
+        <v>858.55</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="16">
-        <v>862.46</v>
+        <v>858.55</v>
       </c>
     </row>
   </sheetData>
